--- a/2025-10-15/15_combined_confidence.xlsx
+++ b/2025-10-15/15_combined_confidence.xlsx
@@ -485,7 +485,7 @@
         <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>

--- a/2025-10-15/15_combined_confidence.xlsx
+++ b/2025-10-15/15_combined_confidence.xlsx
@@ -473,48 +473,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras  - Red Bull Bragantino: 23:00</t>
+          <t>Puerto Rico - Argentina ✓: 0:6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sociedade Esportiva Palmeiras</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>92</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Puerto Rico - Argentina ✓: 0:6</t>
+          <t>Sociedade Esportiva Palmeiras ✓ - Red Bull Bragantino: 5:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Sociedade Esportiva Palmeiras</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
